--- a/biology/Histoire de la zoologie et de la botanique/Charles_William_Myers/Charles_William_Myers.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Charles_William_Myers/Charles_William_Myers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Charles William Myers est un herpétologiste américain né en 1936 et mort le 4 septembre 2018[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Charles William Myers est un herpétologiste américain né en 1936 et mort le 4 septembre 2018.
 Retraité depuis 1999, mais continuant ses recherches, il est Curator Emeritus du Department of Herpetology du Musée américain d'histoire naturelle, qu'il avait dirigé en 1980-1987 et 1993-1998.
 </t>
         </is>
@@ -512,18 +524,20 @@
           <t>Taxons nommés en son honneur</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Rhadinaea myersi Rossman, 1965[2]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Rhadinaea myersi Rossman, 1965
 Allobates myersi (Pyburn, 1981)
 Pipa myersi Trueb, 1984
-Amphisbaena myersi Hoogmoed, 1988[2]
-Urotheca myersi Savage &amp; Lahanas, 1989[2]
-Ptychoglossus myersi Harris, 1994[2]
+Amphisbaena myersi Hoogmoed, 1988
+Urotheca myersi Savage &amp; Lahanas, 1989
+Ptychoglossus myersi Harris, 1994
 Leptodactylus myersi Heyer, 1995
-Bothrocophias myersi Gutberlet &amp; Campbell, 2001[2]
+Bothrocophias myersi Gutberlet &amp; Campbell, 2001
 Myersiohyla Faivovich, Haddad, Garcia, Frost, Campbell &amp; Wheeler, 2005
-Anolis charlesmyersi Köhler, 2010[2]</t>
+Anolis charlesmyersi Köhler, 2010</t>
         </is>
       </c>
     </row>
@@ -551,7 +565,9 @@
           <t>Quelques taxons décrits</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Anolis fungosus
